--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2391.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2391.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.061246138791834</v>
+        <v>0.9916810989379883</v>
       </c>
       <c r="B1">
-        <v>2.337007707675495</v>
+        <v>2.185224294662476</v>
       </c>
       <c r="C1">
-        <v>7.360204927696103</v>
+        <v>4.603261470794678</v>
       </c>
       <c r="D1">
-        <v>1.803286245780756</v>
+        <v>2.863547801971436</v>
       </c>
       <c r="E1">
-        <v>1.006333905901347</v>
+        <v>1.380898118019104</v>
       </c>
     </row>
   </sheetData>
